--- a/Pratica_01/custos.xlsx
+++ b/Pratica_01/custos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d7c0945b129cce9/Área de Trabalho/Informatica/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Downloads\Git\Repo_01\Pratica_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{F8291A83-B334-4362-9116-7E4D78DDEC98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{58223701-C3E7-4B35-9946-EAB20CB9AA7E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3575F60E-B1FD-48A5-87D9-0A4EA9ADD9AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{ACDAD040-E098-4AA2-84F8-E8A5C036AF3A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{ACDAD040-E098-4AA2-84F8-E8A5C036AF3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Pacotes_Trabalho" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Lista de Atividades</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Valor Médio de Hora Trabalhada</t>
+  </si>
+  <si>
+    <t>Valor da Hora de trabalho</t>
   </si>
 </sst>
 </file>
@@ -94,7 +97,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -120,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -220,32 +223,47 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -270,20 +288,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,7 +622,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -609,6 +630,7 @@
     <col min="1" max="1" width="24.1796875" customWidth="1"/>
     <col min="2" max="2" width="16.7265625" customWidth="1"/>
     <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="4" max="4" width="27.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19" thickBot="1" x14ac:dyDescent="0.5">
@@ -621,6 +643,9 @@
       <c r="C1" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="D1" s="15" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -629,8 +654,12 @@
       <c r="B2" s="9">
         <v>168</v>
       </c>
-      <c r="C2" s="12">
-        <v>1000000</v>
+      <c r="C2" s="11">
+        <f>B2*D2</f>
+        <v>159600</v>
+      </c>
+      <c r="D2" s="17">
+        <v>950</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -640,8 +669,12 @@
       <c r="B3" s="4">
         <v>336</v>
       </c>
-      <c r="C3" s="12">
-        <v>250000</v>
+      <c r="C3" s="11">
+        <f t="shared" ref="C3:C11" si="0">B3*D3</f>
+        <v>151200</v>
+      </c>
+      <c r="D3" s="16">
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -651,8 +684,12 @@
       <c r="B4" s="4">
         <v>504</v>
       </c>
-      <c r="C4" s="12">
-        <v>180000</v>
+      <c r="C4" s="11">
+        <f t="shared" si="0"/>
+        <v>327600</v>
+      </c>
+      <c r="D4" s="18">
+        <v>650</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -662,8 +699,12 @@
       <c r="B5" s="4">
         <v>168</v>
       </c>
-      <c r="C5" s="12">
-        <v>200000</v>
+      <c r="C5" s="11">
+        <f t="shared" si="0"/>
+        <v>109200</v>
+      </c>
+      <c r="D5" s="16">
+        <v>650</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -673,8 +714,12 @@
       <c r="B6" s="3">
         <v>336</v>
       </c>
-      <c r="C6" s="12">
-        <v>150000</v>
+      <c r="C6" s="11">
+        <f t="shared" si="0"/>
+        <v>168000</v>
+      </c>
+      <c r="D6" s="16">
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -684,8 +729,12 @@
       <c r="B7" s="3">
         <v>336</v>
       </c>
-      <c r="C7" s="12">
-        <v>250000</v>
+      <c r="C7" s="11">
+        <f t="shared" si="0"/>
+        <v>134400</v>
+      </c>
+      <c r="D7" s="16">
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -695,8 +744,12 @@
       <c r="B8" s="3">
         <v>168</v>
       </c>
-      <c r="C8" s="12">
-        <v>300000</v>
+      <c r="C8" s="11">
+        <f t="shared" si="0"/>
+        <v>126000</v>
+      </c>
+      <c r="D8" s="18">
+        <v>750</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -706,8 +759,12 @@
       <c r="B9" s="3">
         <v>168</v>
       </c>
-      <c r="C9" s="12">
-        <v>150000</v>
+      <c r="C9" s="11">
+        <f t="shared" si="0"/>
+        <v>84000</v>
+      </c>
+      <c r="D9" s="16">
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -717,8 +774,12 @@
       <c r="B10" s="3">
         <v>120</v>
       </c>
-      <c r="C10" s="12">
-        <v>100000</v>
+      <c r="C10" s="11">
+        <f t="shared" si="0"/>
+        <v>48000</v>
+      </c>
+      <c r="D10" s="16">
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -728,13 +789,16 @@
       <c r="B11" s="3">
         <v>48</v>
       </c>
-      <c r="C11" s="12">
-        <v>75000</v>
-      </c>
-      <c r="D11" s="10"/>
+      <c r="C11" s="11">
+        <f>B11*D11</f>
+        <v>24000</v>
+      </c>
+      <c r="D11" s="16">
+        <v>500</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C12" s="11"/>
+      <c r="C12" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -746,7 +810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEB81F6-7EF1-4834-B971-68AEA054DC55}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -769,7 +833,7 @@
         <f>SUM(Pacotes_Trabalho!B2:B11)</f>
         <v>2352</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <f>AVERAGE(A2/11)</f>
         <v>213.81818181818181</v>
       </c>
@@ -783,7 +847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34194406-9A40-4956-8908-39A059069791}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -802,13 +866,13 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <f>SUM(Pacotes_Trabalho!C2:C11)</f>
-        <v>2655000</v>
-      </c>
-      <c r="B2" s="13">
+        <v>1332000</v>
+      </c>
+      <c r="B2" s="12">
         <f>SUM(A2/Duração_trabalho!A2)</f>
-        <v>1128.8265306122448</v>
+        <v>566.32653061224494</v>
       </c>
     </row>
   </sheetData>
